--- a/biology/Zoologie/Coccinella_hieroglyphica/Coccinella_hieroglyphica.xlsx
+++ b/biology/Zoologie/Coccinella_hieroglyphica/Coccinella_hieroglyphica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coccinella hieroglyphica est une espèce de coléoptères de la famille des Coccinellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes mesurent de 4 à 5 mm de long. Les élytres sont d'une couleur marron à noire avec des motifs noirs. Le pronotum est noir avec des marques avant latérales blanches, les pattes sont noires[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes mesurent de 4 à 5 mm de long. Les élytres sont d'une couleur marron à noire avec des motifs noirs. Le pronotum est noir avec des marques avant latérales blanches, les pattes sont noires.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Interdiction d'introduction, de détention, de transport, de reproduction, de mise en vente, de vente, d'achat et de cession de spécimens vivants d'espèces animales exotiques de la faune sauvage, dans la collectivité départementale de Mayotte[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interdiction d'introduction, de détention, de transport, de reproduction, de mise en vente, de vente, d'achat et de cession de spécimens vivants d'espèces animales exotiques de la faune sauvage, dans la collectivité départementale de Mayotte.
 			Coccinella hieroglyphica
 			Coccinella hieroglyphica, Belgique
 			Coccinella hieroglyphica, Belgique
